--- a/BoM_makeraxelitev025.xlsx
+++ b/BoM_makeraxelitev025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\makeraxe-lite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MakerAxe-lite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E4733-6647-4E63-822A-32D93C01CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032402E-BDE9-4631-8404-C4ECA9089302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{947F9BED-B282-40A2-9C39-10896D520BB3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{947F9BED-B282-40A2-9C39-10896D520BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM_makeraxelitev025" sheetId="1" r:id="rId1"/>
@@ -692,12 +692,6 @@
     <t>Total Cost:</t>
   </si>
   <si>
-    <t>COMPONENTES PCB</t>
-  </si>
-  <si>
-    <t>COMPONENTES MECÁNICOS Y OTROS</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -876,6 +870,12 @@
   </si>
   <si>
     <t>https://www.lcsc.com/product-detail/Tantalum-Capacitors_CEC-Shenzhen-Zhenhua-XinYun-Elec-CA45B-B-6-3V-220UF-M_C2976916.html</t>
+  </si>
+  <si>
+    <t>PCB Parts</t>
+  </si>
+  <si>
+    <t>Others &amp; Mechanical Parts</t>
   </si>
 </sst>
 </file>
@@ -885,7 +885,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1413,12 +1413,6 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1441,51 +1435,57 @@
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,7 +1501,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1819,38 +1819,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2438717F-A983-4EA0-B0F5-02EB70DE047C}">
   <dimension ref="A2:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.5625" customWidth="1"/>
+    <col min="2" max="2" width="24.8125" customWidth="1"/>
+    <col min="4" max="4" width="30.0625" customWidth="1"/>
+    <col min="6" max="6" width="13.1875" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
     <col min="13" max="13" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="14.55">
+      <c r="A2" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.55">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="14.55">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="14.55">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="14.55">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="14.55">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.55">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.55">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="14.55">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.55">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14.55">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="14.55">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.55">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2245,40 +2245,40 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:13" s="11" customFormat="1" ht="14.55">
+      <c r="A15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
         <v>0.25380000000000003</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>0.25380000000000003</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I15" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.55">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="14.55">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -2344,103 +2344,103 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="14.55">
+      <c r="A18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
         <v>1.0355000000000001</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>1.0355000000000001</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="14.55">
+      <c r="A19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J19" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="0"/>
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="14.55">
+      <c r="A20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I20" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.55">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="14.55">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -2497,13 +2497,13 @@
         <v>0.18770000000000001</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.55">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -2533,51 +2533,51 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="14.55">
+      <c r="A24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="14.55">
+      <c r="A25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="14.55">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -2604,13 +2604,13 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.55">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="14.55">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="14.55">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="14.55">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -2733,13 +2733,13 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.55">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -2766,15 +2766,15 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.55">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s">
         <v>132</v>
@@ -2799,13 +2799,13 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14.55">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -2832,13 +2832,13 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.55">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -2865,13 +2865,13 @@
         <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.55">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -2898,13 +2898,13 @@
         <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14.55">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -2931,13 +2931,13 @@
         <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14.55">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -2964,17 +2964,17 @@
         <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J37" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.55">
       <c r="A38" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="9">
         <v>0</v>
       </c>
       <c r="C38" t="s">
@@ -2989,16 +2989,16 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="I38" t="s">
-        <v>239</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="M38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="14.55">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -3025,13 +3025,13 @@
         <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.55">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -3058,13 +3058,13 @@
         <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.55">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -3091,17 +3091,17 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.55">
       <c r="A42" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>220</v>
       </c>
       <c r="C42" t="s">
@@ -3124,13 +3124,13 @@
         <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.55">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="14.55">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -3193,46 +3193,46 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:13" s="11" customFormat="1" ht="14.55">
+      <c r="A45" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="13">
-        <v>1</v>
-      </c>
-      <c r="F45" s="14">
+      <c r="E45" s="11">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12">
         <v>1.8846000000000001</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="12">
         <f t="shared" si="0"/>
         <v>1.8846000000000001</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="L45" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K45" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:13" ht="14.55">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -3265,29 +3265,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:13" s="5" customFormat="1" ht="14.55">
+      <c r="A47" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8">
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="14.55">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="14.55">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -3353,29 +3353,29 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:13" s="5" customFormat="1" ht="14.55">
+      <c r="A50" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8">
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="14.55">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -3396,13 +3396,13 @@
         <v>15.44</v>
       </c>
       <c r="H51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J51" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="14.55">
       <c r="A52" t="s">
         <v>196</v>
       </c>
@@ -3426,13 +3426,13 @@
         <v>0.37019999999999997</v>
       </c>
       <c r="I52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J52" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="14.55">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="14.55">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -3492,36 +3492,36 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:13" s="5" customFormat="1" ht="14.55">
+      <c r="A55" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="7">
-        <v>1</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8">
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="14.55">
       <c r="A56" t="s">
         <v>213</v>
       </c>
       <c r="B56" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>215</v>
       </c>
       <c r="D56" t="s">
@@ -3541,69 +3541,69 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="14.55">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:13" ht="13.9">
+      <c r="A58" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:13" ht="14.55">
+      <c r="A59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="14"/>
       <c r="C60">
         <v>1</v>
       </c>
@@ -3618,21 +3618,21 @@
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>225</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B61" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="14"/>
       <c r="C61">
         <v>1</v>
       </c>
@@ -3644,47 +3644,47 @@
         <v>1.95</v>
       </c>
       <c r="G61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H61" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="15" t="s">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="65" spans="1:2" ht="13.9" thickBot="1"/>
+    <row r="66" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A66" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="3">
         <f>SUM(E4:E56)+SUM(C60:C61)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="15" t="s">
+    <row r="67" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A67" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="4">
         <f>SUM(F4:F56)+SUM(E60:E61)</f>
         <v>41.637800000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B68" s="6">
+    <row r="68" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A68" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68" s="4">
         <f>B67*1.2</f>
         <v>49.965360000000004</v>
       </c>

--- a/BoM_makeraxelitev025.xlsx
+++ b/BoM_makeraxelitev025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\MakerAxe-lite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032402E-BDE9-4631-8404-C4ECA9089302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43164200-3DD9-47A7-9CBE-9E87CD598D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{947F9BED-B282-40A2-9C39-10896D520BB3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{947F9BED-B282-40A2-9C39-10896D520BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM_makeraxelitev025" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="293">
   <si>
     <t>Reference</t>
   </si>
@@ -65,12 +65,6 @@
     <t>LCSC</t>
   </si>
   <si>
-    <t>Mouser Ref</t>
-  </si>
-  <si>
-    <t>Mouser</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -842,18 +836,6 @@
     <t>https://www.lcsc.com/product-detail/Translators-Level-Shifters_Texas-Instruments-TXB0104RGYR_C400708.html</t>
   </si>
   <si>
-    <t>C81094</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Voltage-Regulators-Linear-Low-Drop-Out-LDO-Regulators_Texas-Instruments-LM2940IMP-15-NOPB_C81094.html</t>
-  </si>
-  <si>
-    <t>Alternative 2-&gt;</t>
-  </si>
-  <si>
-    <t>https://www.lcsc.com/product-detail/Voltage-Regulators-Linear-Low-Drop-Out-LDO-Regulators_UTC-Unisonic-Tech-LM2940G-12V-AA3-R_C127023.html</t>
-  </si>
-  <si>
     <t>C1965141</t>
   </si>
   <si>
@@ -876,6 +858,60 @@
   </si>
   <si>
     <t>Others &amp; Mechanical Parts</t>
+  </si>
+  <si>
+    <t>C5145300</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Voltage-Regulators-Linear-Low-Drop-Out-LDO-Regulators_HANSCHIP-semiconductor-LM2940IMP-5-0RG_C5145300.html</t>
+  </si>
+  <si>
+    <t>C626967</t>
+  </si>
+  <si>
+    <t>Out of stock</t>
+  </si>
+  <si>
+    <t>C7452688</t>
+  </si>
+  <si>
+    <t>DS4432U+-ND</t>
+  </si>
+  <si>
+    <t>Digikey Ref</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/analog-devices-inc-maxim-integrated/DS4432U/2062889</t>
+  </si>
+  <si>
+    <t>1908-O250-JO32-B-1V3-1-T1-LFDKR-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/jauch-quartz/O-25-0-JO32-B-1V3-1-T1-LF/10416083</t>
+  </si>
+  <si>
+    <t>EMC2101-ACZL-DKR-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/microchip-technology/EMC2101-ACZL-TR/3872079</t>
+  </si>
+  <si>
+    <t>2073-USB4105-GF-ACT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/gct/USB4105-GF-A/11198441?s=N4IgTCBcDa4AwHYDMBaAqgZQEIBYCMcArCgOIBiKAggMIAqKAcgCIgC6AvkA</t>
+  </si>
+  <si>
+    <t>NPTC041KFXC-RC</t>
+  </si>
+  <si>
+    <t>MCP1824T-0802E/OTCT-ND</t>
+  </si>
+  <si>
+    <t>MCP1824T-1802E/OTCT-ND</t>
   </si>
 </sst>
 </file>
@@ -885,7 +921,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-540A]#,##0.0000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1229,7 +1265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1446,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1422,25 +1458,26 @@
     <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1819,38 +1856,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2438717F-A983-4EA0-B0F5-02EB70DE047C}">
   <dimension ref="A2:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:B59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5625" customWidth="1"/>
-    <col min="2" max="2" width="24.8125" customWidth="1"/>
-    <col min="4" max="4" width="30.0625" customWidth="1"/>
-    <col min="6" max="6" width="13.1875" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="15.53515625" customWidth="1"/>
+    <col min="2" max="2" width="24.84375" customWidth="1"/>
+    <col min="4" max="4" width="30.07421875" customWidth="1"/>
+    <col min="6" max="6" width="13.15234375" customWidth="1"/>
+    <col min="11" max="11" width="14.23046875" customWidth="1"/>
     <col min="13" max="13" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="14.55">
-      <c r="A2" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.55">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1882,24 +1919,24 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.55">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>23</v>
@@ -1912,27 +1949,27 @@
         <v>0.52670000000000006</v>
       </c>
       <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.55">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1945,27 +1982,27 @@
         <v>0.95040000000000013</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.55">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1978,27 +2015,27 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.55">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2011,27 +2048,27 @@
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.55">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2044,27 +2081,27 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="J8" t="s">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="14.55">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2077,27 +2114,27 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="J9" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.55">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2110,27 +2147,27 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="J10" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.55">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2143,24 +2180,24 @@
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="J11" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="14.55">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -2173,24 +2210,24 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="J12" t="s">
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="14.55">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2203,27 +2240,27 @@
         <v>0.1236</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="J13" t="s">
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="14.55">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2236,60 +2273,60 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J14" t="s">
+      <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="11" customFormat="1" ht="14.55">
-      <c r="A15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.25380000000000003</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="0"/>
-        <v>0.25380000000000003</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="14.55">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2302,27 +2339,27 @@
         <v>0.15659999999999999</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>69</v>
       </c>
-      <c r="J16" t="s">
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.55">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2335,123 +2372,123 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J17" t="s">
+      <c r="B18" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="14.55">
-      <c r="A18" s="11" t="s">
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.0355000000000001</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0355000000000001</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1.0355000000000001</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0355000000000001</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="14.55">
-      <c r="A19" s="11" t="s">
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="0"/>
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="14.55">
-      <c r="A20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="0"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.55">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2464,27 +2501,27 @@
         <v>6.0699999999999997E-2</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>87</v>
       </c>
-      <c r="J21" t="s">
+      <c r="B22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.55">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2497,24 +2534,24 @@
         <v>0.18770000000000001</v>
       </c>
       <c r="I22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.55">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2527,68 +2564,80 @@
         <v>0.47749999999999998</v>
       </c>
       <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="J23" t="s">
+      <c r="B24" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="14.55">
-      <c r="A24" s="5" t="s">
+      <c r="C24" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="D24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="E24" s="14">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="B25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="5">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
+      <c r="C25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="14.55">
-      <c r="A25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="K25" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
         <v>105</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.55">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2601,27 +2650,27 @@
         <v>0.18970000000000001</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.55">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2634,27 +2683,27 @@
         <v>0.37290000000000001</v>
       </c>
       <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
         <v>112</v>
       </c>
-      <c r="I27" t="s">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>113</v>
       </c>
-      <c r="J27" t="s">
+      <c r="B28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.55">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
         <v>115</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>116</v>
-      </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" t="s">
-        <v>118</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2667,27 +2716,27 @@
         <v>0.1104</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>119</v>
       </c>
-      <c r="J28" t="s">
+      <c r="B29" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.55">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
         <v>121</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" t="s">
-        <v>124</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2700,24 +2749,24 @@
         <v>2.3037999999999998</v>
       </c>
       <c r="I29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>125</v>
       </c>
-      <c r="J29" t="s">
+      <c r="B30" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.55">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
         <v>127</v>
-      </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>129</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2730,27 +2779,27 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.55">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2763,27 +2812,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.55">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -2796,27 +2845,27 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="14.55">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2829,27 +2878,27 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="14.55">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2862,27 +2911,27 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14.55">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2895,27 +2944,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="14.55">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2928,27 +2977,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J36" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="14.55">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2961,27 +3010,27 @@
         <v>1E-3</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J37" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="14.55">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="9">
+        <v>141</v>
+      </c>
+      <c r="B38" s="7">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2989,27 +3038,27 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="I38" t="s">
-        <v>237</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="M38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3022,27 +3071,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14.55">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -3055,27 +3104,27 @@
         <v>1E-3</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="14.55">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3088,27 +3137,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="14.55">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="9">
+        <v>148</v>
+      </c>
+      <c r="B42" s="7">
         <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3121,27 +3170,27 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="14.55">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
         <v>151</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>152</v>
-      </c>
-      <c r="C43" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" t="s">
-        <v>154</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3154,27 +3203,27 @@
         <v>0.1164</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>155</v>
       </c>
-      <c r="J43" t="s">
+      <c r="B44" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="14.55">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" t="s">
-        <v>160</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3187,63 +3236,58 @@
         <v>2.7437</v>
       </c>
       <c r="I44" t="s">
+        <v>159</v>
+      </c>
+      <c r="J44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J44" t="s">
+      <c r="B45" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" s="11" customFormat="1" ht="14.55">
-      <c r="A45" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="D45" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1.8846000000000001</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8846000000000001</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="B46" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12">
-        <v>1.8846000000000001</v>
-      </c>
-      <c r="G45" s="12">
-        <f t="shared" si="0"/>
-        <v>1.8846000000000001</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="14.55">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
         <v>167</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" t="s">
-        <v>170</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3256,49 +3300,60 @@
         <v>1.7153</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I46" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="J46" t="s">
+      <c r="B47" s="14" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" s="5" customFormat="1" ht="14.55">
-      <c r="A47" s="5" t="s">
+      <c r="C47" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15">
+        <v>3.32</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="0"/>
+        <v>3.32</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="B48" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="14.55">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
         <v>177</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>178</v>
-      </c>
-      <c r="C48" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" t="s">
-        <v>180</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3311,27 +3366,27 @@
         <v>0.1031</v>
       </c>
       <c r="H48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I48" t="s">
+        <v>179</v>
+      </c>
+      <c r="J48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>181</v>
       </c>
-      <c r="J48" t="s">
+      <c r="B49" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="14.55">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
         <v>183</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>184</v>
-      </c>
-      <c r="C49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" t="s">
-        <v>186</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3344,46 +3399,54 @@
         <v>4.0204000000000004</v>
       </c>
       <c r="H49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I49" t="s">
+        <v>185</v>
+      </c>
+      <c r="J49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="J49" t="s">
+      <c r="B50" s="14" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" s="5" customFormat="1" ht="14.55">
-      <c r="A50" s="5" t="s">
+      <c r="C50" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="D50" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="E50" s="14">
+        <v>1</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="G50" s="15">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="B51" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="14.55">
-      <c r="A51" t="s">
+      <c r="D51" t="s">
         <v>193</v>
-      </c>
-      <c r="B51" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" t="s">
-        <v>195</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3396,24 +3459,24 @@
         <v>15.44</v>
       </c>
       <c r="H51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J51" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="14.55">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" t="s">
         <v>196</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>197</v>
-      </c>
-      <c r="C52" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" t="s">
-        <v>199</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3426,106 +3489,124 @@
         <v>0.37019999999999997</v>
       </c>
       <c r="I52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="14.55">
-      <c r="A53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" s="14">
+        <v>1</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="0"/>
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="I53" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D53" t="s">
+      <c r="J53" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="K53" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="J53" t="s">
+      <c r="B54" s="14" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="14.55">
-      <c r="A54" t="s">
+      <c r="C54" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="14">
+        <v>1</v>
+      </c>
+      <c r="F54" s="15">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="I54" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B54" t="s">
+      <c r="J54" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" t="s">
-        <v>203</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="K54" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="J54" t="s">
+      <c r="B55" s="14" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" s="5" customFormat="1" ht="14.55">
-      <c r="A55" s="5" t="s">
+      <c r="C55" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="D55" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="14">
+        <v>1</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="B56" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="14.55">
-      <c r="A56" t="s">
+      <c r="C56" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>214</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" t="s">
-        <v>216</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3538,41 +3619,41 @@
         <v>0.1769</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J56" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="14.55">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="13.9">
-      <c r="A58" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-    </row>
-    <row r="59" spans="1:13" ht="14.55">
-      <c r="A59" s="14" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="2" t="s">
         <v>4</v>
       </c>
@@ -3586,24 +3667,24 @@
         <v>7</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="12"/>
       <c r="C60">
         <v>1</v>
       </c>
@@ -3615,24 +3696,24 @@
         <v>6.54</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>223</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="14"/>
+        <v>221</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="12"/>
       <c r="C61">
         <v>1</v>
       </c>
@@ -3644,49 +3725,49 @@
         <v>1.95</v>
       </c>
       <c r="G61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s">
+        <v>226</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B62" s="14"/>
-    </row>
-    <row r="65" spans="1:2" ht="13.9" thickBot="1"/>
-    <row r="66" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A66" s="13" t="s">
-        <v>217</v>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="B66" s="3">
         <f>SUM(E4:E56)+SUM(C60:C61)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A67" s="13" t="s">
-        <v>218</v>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="B67" s="4">
         <f>SUM(F4:F56)+SUM(E60:E61)</f>
-        <v>41.637800000000006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A68" s="13" t="s">
-        <v>231</v>
+        <v>45.827800000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="B68" s="4">
         <f>B67*1.2</f>
-        <v>49.965360000000004</v>
+        <v>54.993360000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3785,9 @@
   <hyperlinks>
     <hyperlink ref="C24" r:id="rId1" xr:uid="{86BF4A5A-FC9A-44B6-87F9-1B345D6995E8}"/>
     <hyperlink ref="C56" r:id="rId2" xr:uid="{C748442B-1233-4465-AD90-0765C296748D}"/>
+    <hyperlink ref="C45" r:id="rId3" xr:uid="{388BD941-67DA-40D8-9F86-DAFEDB7E2F48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>